--- a/.netprojekt.xlsx
+++ b/.netprojekt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\source\repos\rasoster\netprojektet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0BE1D-708A-4290-BCFF-7B78F28C19FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A497B7B-D45F-432A-BDDE-534FFE3228B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05BDE99E-F5AA-4940-998A-F540B897AE15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Användare</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>bildlänk</t>
+  </si>
+  <si>
+    <t>bekräfta lösenord</t>
+  </si>
+  <si>
+    <t>epost</t>
+  </si>
+  <si>
+    <t>bekräfta epost</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,10 +517,10 @@
     <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
@@ -538,6 +547,15 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
